--- a/Soft X-ray/Four-View_Simulation/assumption_data/evaluation_results.xlsx
+++ b/Soft X-ray/Four-View_Simulation/assumption_data/evaluation_results.xlsx
@@ -3920,7 +3920,7 @@
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0">
-        <v>0.28212989722882276</v>
+        <v>0.25931365581629667</v>
       </c>
       <c r="B1" s="0">
         <v>0.13469961817786344</v>
@@ -4256,7 +4256,7 @@
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0">
-        <v>76.722409005889006</v>
+        <v>87.185283856881128</v>
       </c>
       <c r="B1" s="0">
         <v>0.065728213410725919</v>
@@ -4621,7 +4621,7 @@
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0">
-        <v>0.7188530719522922</v>
+        <v>0.70293911751410576</v>
       </c>
       <c r="B1" s="0">
         <v>0.30155180298572237</v>

--- a/Soft X-ray/Four-View_Simulation/assumption_data/evaluation_results.xlsx
+++ b/Soft X-ray/Four-View_Simulation/assumption_data/evaluation_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohgookazaki/Documents/GitHub/test-open/Soft X-ray/Four-View_Simulation/assumption_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF40F760-D070-5F4D-8903-9FD3D6EF0B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8DD983-119B-F848-943B-6B6B30877DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>a1</t>
   </si>
@@ -88,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -113,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -121,15 +121,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3456,7 +3454,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -3474,7 +3472,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201DD16C-5465-7F8E-88E1-D80D676627EB}"/>
             </a:ext>
           </a:extLst>
@@ -3497,7 +3495,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3515,7 +3513,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D9A96B-C3FE-8A22-630B-BE17D748D3D6}"/>
             </a:ext>
           </a:extLst>
@@ -3538,7 +3536,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3556,7 +3554,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE31461-1391-94E3-A0EF-FE560D48E371}"/>
             </a:ext>
           </a:extLst>
@@ -3579,7 +3577,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3730,7 +3728,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3754,9 +3752,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3780,7 +3778,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -3815,7 +3813,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3833,7 +3831,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3858,7 +3856,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -3894,72 +3892,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="1" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="0">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>0.25931365581629667</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1">
         <v>0.13469961817786344</v>
       </c>
-      <c r="C1" s="0">
+      <c r="C1">
         <v>0.34713454902919461</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>0.29380128949299927</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1">
         <v>0.39884398440191848</v>
       </c>
-      <c r="F1" s="0">
+      <c r="F1">
         <v>0.32687778940981954</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>0.20523625672338736</v>
       </c>
-      <c r="H1" s="0">
+      <c r="H1">
         <v>0.27183334591895475</v>
       </c>
-      <c r="I1" s="0">
+      <c r="I1">
         <v>0.11896798089819645</v>
       </c>
-      <c r="J1" s="0">
+      <c r="J1">
         <v>0.26319786513602822</v>
       </c>
-      <c r="K1" s="0">
+      <c r="K1">
         <v>0.28203469808500276</v>
       </c>
-      <c r="L1" s="0">
+      <c r="L1">
         <v>0.24144103594831326</v>
       </c>
-      <c r="M1" s="0">
+      <c r="M1">
         <v>0.295779824558351</v>
       </c>
+      <c r="O1">
+        <f>AVERAGE(A1:M1)</f>
+        <v>0.26455091489202504</v>
+      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.87838995411032483</v>
       </c>
@@ -3999,8 +3989,12 @@
       <c r="M2">
         <v>0.61989780861324495</v>
       </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O3" si="0">AVERAGE(A2:M2)</f>
+        <v>0.63424647405478496</v>
+      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.88135122563828916</v>
       </c>
@@ -4040,8 +4034,12 @@
       <c r="M3">
         <v>0.58224365327037864</v>
       </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0.60808255586439119</v>
+      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -4076,7 +4074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4114,7 +4112,7 @@
         <v>0.63303146407561783</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4152,7 +4150,7 @@
         <v>0.61989780861324495</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>0.58224365327037864</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -4198,7 +4196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.13778883317760543</v>
       </c>
@@ -4206,7 +4204,7 @@
         <v>0.1407060687990111</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.22175545361066223</v>
       </c>
@@ -4214,7 +4212,7 @@
         <v>0.19961741385638607</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.16308603568826652</v>
       </c>
@@ -4230,72 +4228,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="114" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:L23"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="1" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="0">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>87.185283856881128</v>
       </c>
-      <c r="B1" s="0">
-        <v>0.065728213410725919</v>
-      </c>
-      <c r="C1" s="0">
+      <c r="B1">
+        <v>6.5728213410725919E-2</v>
+      </c>
+      <c r="C1">
         <v>1.393684656746869</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>27.194536247614732</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1">
         <v>4.7741792434485815</v>
       </c>
-      <c r="F1" s="0">
+      <c r="F1">
         <v>4.5722818574946711</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>135.57888152960783</v>
       </c>
-      <c r="H1" s="0">
+      <c r="H1">
         <v>355.26586520943886</v>
       </c>
-      <c r="I1" s="0">
+      <c r="I1">
         <v>0.48448708078989622</v>
       </c>
-      <c r="J1" s="0">
+      <c r="J1">
         <v>422.32677235975444</v>
       </c>
-      <c r="K1" s="0">
+      <c r="K1">
         <v>39.701068270169031</v>
       </c>
-      <c r="L1" s="0">
+      <c r="L1">
         <v>80.725096751656352</v>
       </c>
-      <c r="M1" s="0">
+      <c r="M1">
         <v>57.432631252759371</v>
       </c>
+      <c r="O1">
+        <f>AVERAGE(A1:M1)</f>
+        <v>93.592345886905591</v>
+      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7619343821236597</v>
       </c>
@@ -4335,8 +4331,12 @@
       <c r="M2">
         <v>16.879757407627576</v>
       </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O6" si="0">AVERAGE(A2:M2)</f>
+        <v>14.127018840829468</v>
+      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.6509246972712426</v>
       </c>
@@ -4376,8 +4376,12 @@
       <c r="M3">
         <v>17.364658856356751</v>
       </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>17.828214799701868</v>
+      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -4412,7 +4416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G21">
         <v>125.21745589664317</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>16.035359299652633</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G22">
         <v>136.80033694404949</v>
       </c>
@@ -4542,7 +4546,7 @@
         <v>16.879757407627576</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G23">
         <v>138.79609754655917</v>
       </c>
@@ -4556,7 +4560,7 @@
         <v>17.364658856356751</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -4564,7 +4568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9.7683274484148097E-2</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>0.76760541571824348</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8.3858593735043216E-2</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>0.59853417141814569</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6.5623832619752784E-2</v>
       </c>
@@ -4595,72 +4599,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="135" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="0">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>0.70293911751410576</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1">
         <v>0.30155180298572237</v>
       </c>
-      <c r="C1" s="0">
+      <c r="C1">
         <v>0.7783299895399739</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>0.76995930527563894</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1">
         <v>0.75838797228632537</v>
       </c>
-      <c r="F1" s="0">
+      <c r="F1">
         <v>0.74557209278190417</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>0.54612892449419115</v>
       </c>
-      <c r="H1" s="0">
+      <c r="H1">
         <v>0.70336245135316444</v>
       </c>
-      <c r="I1" s="0">
+      <c r="I1">
         <v>0.3266116564498649</v>
       </c>
-      <c r="J1" s="0">
+      <c r="J1">
         <v>0.68912887541911549</v>
       </c>
-      <c r="K1" s="0">
+      <c r="K1">
         <v>0.68907324870224762</v>
       </c>
-      <c r="L1" s="0">
+      <c r="L1">
         <v>0.68695891449068258</v>
       </c>
-      <c r="M1" s="0">
+      <c r="M1">
         <v>0.68581391815338144</v>
       </c>
+      <c r="O1">
+        <f>AVERAGE(A1:M1)</f>
+        <v>0.64490909764971671</v>
+      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.97089911944591556</v>
       </c>
@@ -4700,8 +4700,12 @@
       <c r="M2">
         <v>0.82199394822091743</v>
       </c>
+      <c r="O2">
+        <f>AVERAGE(A2:M2)</f>
+        <v>0.78581522599722775</v>
+      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.9721921582227494</v>
       </c>
@@ -4741,8 +4745,12 @@
       <c r="M3">
         <v>0.80919828512388903</v>
       </c>
+      <c r="O3">
+        <f>AVERAGE(A3:M3)</f>
+        <v>0.8024956514224294</v>
+      </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -4777,7 +4785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -4815,7 +4823,7 @@
         <v>0.83786620175712401</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -4853,7 +4861,7 @@
         <v>0.82199394822091743</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>0.80919828512388903</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
@@ -4899,7 +4907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>7.5054695406845937E-2</v>
       </c>
@@ -4907,7 +4915,7 @@
         <v>9.4320068948957253E-2</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>0</v>
       </c>
@@ -4915,7 +4923,7 @@
         <v>0.39315622437864184</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>0.4188226864776452</v>
       </c>
